--- a/input_csv/13_Speichermedien/artikel.xlsx
+++ b/input_csv/13_Speichermedien/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\13_Speichermedien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A692CB43-991C-4DEE-A9CE-BB46A0B30EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BE9FE-C15B-408F-823D-AFF0F4829963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE3EE623-5D49-4E8C-8A01-952CEB1108D1}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,38 +31,44 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>4TB S-ATA III HDD Festplatte</t>
-  </si>
-  <si>
-    <t>1TB M.2 SSD (NVMe) WD Blue SN5100</t>
-  </si>
-  <si>
-    <t>0718037906256</t>
-  </si>
-  <si>
-    <t>4TB M.2 SSD (NVMe) WD_BLACK SN8100</t>
-  </si>
-  <si>
-    <t>0619659220891</t>
-  </si>
-  <si>
-    <t>1TB M.2 SSD (NVMe) Kingston NV2 - M.2 2280 - PCIe 4.0 x4</t>
-  </si>
-  <si>
-    <t>7,40617E+11</t>
-  </si>
-  <si>
-    <t>1TB M.2 SSD (NVMe) Samsung 990 PRO - MZ-V9P1T0BW</t>
-  </si>
-  <si>
-    <t>1TB S-ATA III HDD Festplatte</t>
+    <t>1TB HDD</t>
+  </si>
+  <si>
+    <t>1TB SSD</t>
+  </si>
+  <si>
+    <t>2TB M.2 SSD (NVMe) Gen4 Samsung 990 PRO</t>
+  </si>
+  <si>
+    <t>2TB M.2 SSD (NVMe) WD BLACK SN7100</t>
+  </si>
+  <si>
+    <t>2TB NVMe</t>
+  </si>
+  <si>
+    <t>2TB SSD</t>
+  </si>
+  <si>
+    <t>512GB NVMe</t>
+  </si>
+  <si>
+    <t>512GB SSD</t>
+  </si>
+  <si>
+    <t>256GB NVMe</t>
+  </si>
+  <si>
+    <t>4TB HDD</t>
+  </si>
+  <si>
+    <t>DVD-Brenner Slim extern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +199,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,9 +552,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E85B9D-402D-4A1C-AEBB-39EB52206811}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,63 +956,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>102286</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>107079</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8806094215038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>107016</v>
+      </c>
+      <c r="C5" s="1">
+        <v>718037893211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>103133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>103129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>102895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>102475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>102894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
         <v>103305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>107192</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>107204</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>103364</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>106079</v>
-      </c>
-      <c r="C6">
-        <v>8806094215021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1095</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>102891</v>
+      </c>
+      <c r="C12">
+        <v>8806087132199</v>
       </c>
     </row>
   </sheetData>

--- a/input_csv/13_Speichermedien/artikel.xlsx
+++ b/input_csv/13_Speichermedien/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\13_Speichermedien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BE9FE-C15B-408F-823D-AFF0F4829963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185248B-22BE-42DF-A596-81AC2EC1C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE3EE623-5D49-4E8C-8A01-952CEB1108D1}"/>
   </bookViews>
@@ -934,7 +934,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_csv/13_Speichermedien/artikel.xlsx
+++ b/input_csv/13_Speichermedien/artikel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\13_Speichermedien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185248B-22BE-42DF-A596-81AC2EC1C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CA46C0-2975-4A53-AE2A-FE921B08BB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE3EE623-5D49-4E8C-8A01-952CEB1108D1}"/>
   </bookViews>
@@ -934,7 +934,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
